--- a/Team-Data/2011-12/1-24-2011-12.xlsx
+++ b/Team-Data/2011-12/1-24-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -762,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -777,19 +844,19 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
       </c>
       <c r="AQ2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR2" t="n">
         <v>21</v>
       </c>
-      <c r="AR2" t="n">
-        <v>20</v>
-      </c>
       <c r="AS2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -950,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
@@ -959,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
@@ -980,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
         <v>8</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -1030,106 +1097,106 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.167</v>
+        <v>0.176</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
         <v>82.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M4" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O4" t="n">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="P4" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="T4" t="n">
-        <v>41.1</v>
+        <v>41.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
       </c>
       <c r="W4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>90</v>
+        <v>90.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-11.6</v>
+        <v>-10.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1138,28 +1205,28 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR4" t="n">
         <v>20</v>
       </c>
-      <c r="AO4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>19</v>
-      </c>
       <c r="AS4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT4" t="n">
         <v>21</v>
       </c>
-      <c r="AT4" t="n">
-        <v>23</v>
-      </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>9</v>
@@ -1168,22 +1235,22 @@
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
         <v>22</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -1308,13 +1375,13 @@
         <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
@@ -1323,19 +1390,19 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1344,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>18</v>
@@ -1353,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -1394,109 +1461,109 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
         <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="N6" t="n">
         <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>17.5</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.702</v>
+        <v>0.704</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
         <v>19.5</v>
       </c>
       <c r="V6" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.2</v>
+        <v>94.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
@@ -1505,28 +1572,28 @@
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>24</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1538,13 +1605,13 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -1657,25 +1724,25 @@
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>18</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>12</v>
@@ -1693,25 +1760,25 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>26</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU7" t="n">
         <v>15</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
         <v>22</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1860,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="AL8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
         <v>8</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>18</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
         <v>27</v>
@@ -2033,7 +2100,7 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>28</v>
@@ -2057,10 +2124,10 @@
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2069,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
@@ -2081,13 +2148,13 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2245,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT10" t="n">
         <v>24</v>
@@ -2254,13 +2321,13 @@
         <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
         <v>7</v>
@@ -2269,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF11" t="n">
         <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -2415,7 +2482,7 @@
         <v>18</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
         <v>30</v>
@@ -2424,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT11" t="n">
         <v>7</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
@@ -2442,13 +2509,13 @@
         <v>22</v>
       </c>
       <c r="AX11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
         <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2486,115 +2553,115 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="J12" t="n">
-        <v>80.3</v>
+        <v>80.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.39</v>
+        <v>0.396</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8</v>
+        <v>0.791</v>
       </c>
       <c r="R12" t="n">
         <v>12.9</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>92.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8</v>
       </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="n">
         <v>24</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2609,38 +2676,38 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>23</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>20</v>
-      </c>
       <c r="BA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC12" t="n">
         <v>9</v>
       </c>
-      <c r="BB12" t="n">
-        <v>19</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>13</v>
-      </c>
       <c r="BD12" t="n">
         <v>10</v>
       </c>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2779,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
         <v>2</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
@@ -2800,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW13" t="n">
         <v>14</v>
@@ -2812,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
@@ -2940,10 +3007,10 @@
         <v>16</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>24</v>
@@ -2967,7 +3034,7 @@
         <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>13</v>
@@ -2982,13 +3049,13 @@
         <v>6</v>
       </c>
       <c r="AV14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX14" t="n">
         <v>14</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>0.588</v>
+        <v>0.625</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>82.40000000000001</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.459</v>
+        <v>0.465</v>
       </c>
       <c r="L15" t="n">
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.311</v>
+        <v>0.318</v>
       </c>
       <c r="O15" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="P15" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.725</v>
+        <v>0.723</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V15" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>10.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
         <v>5.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>95.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>18</v>
@@ -3131,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,22 +3207,22 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>19</v>
@@ -3164,13 +3231,13 @@
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3179,13 +3246,13 @@
         <v>8</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -3214,115 +3281,115 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.706</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="I16" t="n">
-        <v>39</v>
+        <v>39.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.486</v>
+        <v>0.488</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P16" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.751</v>
+        <v>0.743</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W16" t="n">
         <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
         <v>4.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>104.6</v>
+        <v>105.4</v>
       </c>
       <c r="AC16" t="n">
         <v>7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF16" t="n">
         <v>4</v>
       </c>
-      <c r="AF16" t="n">
-        <v>3</v>
-      </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
         <v>4</v>
@@ -3331,22 +3398,22 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AU16" t="n">
         <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
@@ -3361,7 +3428,7 @@
         <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3489,7 +3556,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ17" t="n">
         <v>4</v>
@@ -3510,13 +3577,13 @@
         <v>25</v>
       </c>
       <c r="AP17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
         <v>28</v>
@@ -3537,7 +3604,7 @@
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
@@ -3549,7 +3616,7 @@
         <v>21</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>18</v>
@@ -3671,13 +3738,13 @@
         <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>3</v>
@@ -3695,19 +3762,19 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
@@ -3716,7 +3783,7 @@
         <v>16</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
@@ -3725,10 +3792,10 @@
         <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -3859,7 +3926,7 @@
         <v>20</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3871,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -3880,7 +3947,7 @@
         <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3898,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>20</v>
@@ -4041,7 +4108,7 @@
         <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4056,16 +4123,16 @@
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>5</v>
@@ -4080,16 +4147,16 @@
         <v>19</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4124,106 +4191,106 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0.412</v>
+        <v>0.375</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
       </c>
       <c r="I21" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.419</v>
+        <v>0.414</v>
       </c>
       <c r="L21" t="n">
         <v>7.1</v>
       </c>
       <c r="M21" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="N21" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="O21" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="P21" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.785</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.8</v>
+        <v>31.3</v>
       </c>
       <c r="T21" t="n">
-        <v>42.8</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="V21" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="W21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA21" t="n">
         <v>22.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4232,10 +4299,10 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP21" t="n">
         <v>4</v>
@@ -4244,40 +4311,40 @@
         <v>5</v>
       </c>
       <c r="AR21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS21" t="n">
         <v>16</v>
       </c>
-      <c r="AS21" t="n">
-        <v>11</v>
-      </c>
       <c r="AT21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY21" t="n">
         <v>13</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>17</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>5.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4432,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4488,100 +4555,100 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.706</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="J23" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="M23" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O23" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="P23" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.657</v>
+        <v>0.655</v>
       </c>
       <c r="R23" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.1</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4.2</v>
       </c>
       <c r="Z23" t="n">
         <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF23" t="n">
         <v>4</v>
       </c>
-      <c r="AF23" t="n">
-        <v>3</v>
-      </c>
       <c r="AG23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>9</v>
@@ -4608,25 +4675,25 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AV23" t="n">
         <v>14</v>
       </c>
-      <c r="AS23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>15</v>
-      </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>5</v>
@@ -4635,13 +4702,13 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>16</v>
       </c>
       <c r="BC23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4748,22 +4815,22 @@
         <v>11.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>3</v>
@@ -4772,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
         <v>18.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R25" t="n">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
         <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4915,55 +4982,55 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
         <v>19.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
         <v>20</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>22</v>
       </c>
       <c r="AH25" t="n">
         <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN25" t="n">
         <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -4972,16 +5039,16 @@
         <v>4</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU25" t="n">
         <v>14</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>11</v>
@@ -5002,10 +5069,10 @@
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -5034,97 +5101,97 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.611</v>
+        <v>0.588</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.9</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>82.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K26" t="n">
         <v>0.434</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M26" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.304</v>
+        <v>0.309</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
         <v>11.7</v>
       </c>
       <c r="S26" t="n">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="T26" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="W26" t="n">
         <v>8.4</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AB26" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
@@ -5133,61 +5200,61 @@
         <v>5</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM26" t="n">
         <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
         <v>9</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY26" t="n">
         <v>14</v>
       </c>
-      <c r="AV26" t="n">
+      <c r="AZ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA26" t="n">
         <v>7</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>6</v>
       </c>
       <c r="BB26" t="n">
         <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="AE27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5327,7 +5394,7 @@
         <v>29</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>7</v>
@@ -5342,34 +5409,34 @@
         <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ27" t="n">
         <v>9</v>
       </c>
       <c r="BA27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5546,13 @@
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -5515,13 +5582,13 @@
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>23</v>
       </c>
       <c r="AS28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT28" t="n">
         <v>26</v>
@@ -5536,10 +5603,10 @@
         <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -5580,100 +5647,100 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>13</v>
       </c>
       <c r="G29" t="n">
-        <v>0.278</v>
+        <v>0.235</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="J29" t="n">
-        <v>77.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L29" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M29" t="n">
         <v>16.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="O29" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="P29" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.762</v>
       </c>
       <c r="R29" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U29" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V29" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W29" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>86.2</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
@@ -5688,25 +5755,25 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT29" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5715,19 +5782,19 @@
         <v>23</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>2.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
@@ -5858,7 +5925,7 @@
         <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>9</v>
@@ -5873,22 +5940,22 @@
         <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>13</v>
@@ -5897,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5909,13 +5976,13 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-10.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6043,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6055,28 +6122,28 @@
         <v>26</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP31" t="n">
         <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>15</v>
@@ -6097,7 +6164,7 @@
         <v>27</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-24-2011-12</t>
+          <t>2012-01-24</t>
         </is>
       </c>
     </row>
